--- a/public/uploads/Dotacion turno A 19 - 10 - 2022.xlsx
+++ b/public/uploads/Dotacion turno A 19 - 10 - 2022.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3695B132-8D4A-4080-B2F1-6D7E31B807F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A9322-62D7-48E8-AA84-3C1A0A6FB0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1880,6 +1880,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,24 +1907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,16 +1917,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2328,7 +2328,7 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="34" t="s">
@@ -2420,12 +2420,12 @@
       <c r="E7" s="117" t="s">
         <v>268</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="142">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2438,14 +2438,14 @@
       <c r="E8" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="137"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="77"/>
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -2458,10 +2458,10 @@
       <c r="E9" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="137"/>
+      <c r="F9" s="143"/>
     </row>
     <row r="10" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -2474,14 +2474,14 @@
       <c r="E10" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="137"/>
+      <c r="F10" s="143"/>
       <c r="G10" s="77"/>
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -2494,14 +2494,14 @@
       <c r="E11" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="137"/>
+      <c r="F11" s="143"/>
       <c r="G11" s="77"/>
       <c r="H11" s="77"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2514,14 +2514,14 @@
       <c r="E12" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="143"/>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
@@ -2534,14 +2534,14 @@
       <c r="E13" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="137"/>
+      <c r="F13" s="143"/>
       <c r="G13" s="77"/>
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
@@ -2554,14 +2554,14 @@
       <c r="E14" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F14" s="137"/>
+      <c r="F14" s="143"/>
       <c r="G14" s="77"/>
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
@@ -2574,14 +2574,14 @@
       <c r="E15" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="137"/>
+      <c r="F15" s="143"/>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
     </row>
     <row r="16" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="141"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
@@ -2594,14 +2594,14 @@
       <c r="E16" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="138"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="77"/>
       <c r="H16" s="77"/>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
     </row>
     <row r="17" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="136" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -2616,7 +2616,7 @@
       <c r="E17" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="F17" s="136">
+      <c r="F17" s="142">
         <v>4</v>
       </c>
       <c r="G17" s="77"/>
@@ -2625,7 +2625,7 @@
       <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2638,14 +2638,14 @@
       <c r="E18" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
     </row>
     <row r="19" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2658,14 +2658,14 @@
       <c r="E19" s="121" t="s">
         <v>261</v>
       </c>
-      <c r="F19" s="137"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="77"/>
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
     </row>
     <row r="20" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="19" t="s">
         <v>39</v>
       </c>
@@ -2678,14 +2678,14 @@
       <c r="E20" s="122" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="138"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="77"/>
       <c r="H20" s="77"/>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
     </row>
     <row r="21" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="139" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -2700,7 +2700,7 @@
       <c r="E21" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="142">
         <v>8</v>
       </c>
       <c r="G21" s="77"/>
@@ -2709,7 +2709,7 @@
       <c r="J21" s="77"/>
     </row>
     <row r="22" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
@@ -2722,14 +2722,14 @@
       <c r="E22" s="134" t="s">
         <v>266</v>
       </c>
-      <c r="F22" s="137"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
     </row>
     <row r="23" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -2742,14 +2742,14 @@
       <c r="E23" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="137"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="77"/>
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
@@ -2762,14 +2762,14 @@
       <c r="E24" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F24" s="137"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
     </row>
     <row r="25" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="5" t="s">
         <v>50</v>
       </c>
@@ -2782,14 +2782,14 @@
       <c r="E25" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="137"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="77"/>
       <c r="H25" s="77"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="5" t="s">
         <v>52</v>
       </c>
@@ -2802,14 +2802,14 @@
       <c r="E26" s="133" t="s">
         <v>261</v>
       </c>
-      <c r="F26" s="137"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="77"/>
       <c r="H26" s="77"/>
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
     </row>
     <row r="27" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2822,14 +2822,14 @@
       <c r="E27" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="137"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="77"/>
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
     </row>
     <row r="28" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="5" t="s">
         <v>56</v>
       </c>
@@ -2842,14 +2842,14 @@
       <c r="E28" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="137"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="77"/>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
     </row>
     <row r="29" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="144"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="19" t="s">
         <v>58</v>
       </c>
@@ -2862,14 +2862,14 @@
       <c r="E29" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F29" s="138"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="77"/>
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
       <c r="J29" s="77"/>
     </row>
     <row r="30" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="139" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -2884,7 +2884,7 @@
       <c r="E30" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="136">
+      <c r="F30" s="142">
         <v>4</v>
       </c>
       <c r="G30" s="77"/>
@@ -2893,7 +2893,7 @@
       <c r="J30" s="77"/>
     </row>
     <row r="31" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="23" t="s">
         <v>63</v>
       </c>
@@ -2906,14 +2906,14 @@
       <c r="E31" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F31" s="137"/>
+      <c r="F31" s="143"/>
       <c r="G31" s="77"/>
       <c r="H31" s="77"/>
       <c r="I31" s="77"/>
       <c r="J31" s="77"/>
     </row>
     <row r="32" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="143"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="5" t="s">
         <v>65</v>
       </c>
@@ -2926,14 +2926,14 @@
       <c r="E32" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F32" s="137"/>
+      <c r="F32" s="143"/>
       <c r="G32" s="77"/>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
       <c r="J32" s="77"/>
     </row>
     <row r="33" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="23" t="s">
         <v>67</v>
       </c>
@@ -2946,14 +2946,14 @@
       <c r="E33" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="137"/>
+      <c r="F33" s="143"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
       <c r="J33" s="77"/>
     </row>
     <row r="34" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="144"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
@@ -2966,14 +2966,14 @@
       <c r="E34" s="116" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="138"/>
+      <c r="F34" s="144"/>
       <c r="G34" s="77"/>
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
       <c r="J34" s="77"/>
     </row>
     <row r="35" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="142" t="s">
+      <c r="A35" s="139" t="s">
         <v>71</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -2988,7 +2988,7 @@
       <c r="E35" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F35" s="136">
+      <c r="F35" s="142">
         <v>4</v>
       </c>
       <c r="G35" s="77"/>
@@ -2997,7 +2997,7 @@
       <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="143"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="25" t="s">
         <v>74</v>
       </c>
@@ -3010,14 +3010,14 @@
       <c r="E36" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F36" s="137"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="77"/>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
     </row>
     <row r="37" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="143"/>
+      <c r="A37" s="140"/>
       <c r="B37" s="27" t="s">
         <v>76</v>
       </c>
@@ -3030,14 +3030,14 @@
       <c r="E37" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="137"/>
+      <c r="F37" s="143"/>
       <c r="G37" s="77"/>
       <c r="H37" s="77"/>
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="144"/>
+      <c r="A38" s="141"/>
       <c r="B38" s="14" t="s">
         <v>78</v>
       </c>
@@ -3050,14 +3050,14 @@
       <c r="E38" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F38" s="138"/>
+      <c r="F38" s="144"/>
       <c r="G38" s="77"/>
       <c r="H38" s="77"/>
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="142" t="s">
+      <c r="A39" s="139" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -3072,7 +3072,7 @@
       <c r="E39" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="F39" s="136">
+      <c r="F39" s="142">
         <v>0</v>
       </c>
       <c r="G39" s="77"/>
@@ -3081,7 +3081,7 @@
       <c r="J39" s="77"/>
     </row>
     <row r="40" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="5" t="s">
         <v>83</v>
       </c>
@@ -3094,14 +3094,14 @@
       <c r="E40" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F40" s="137"/>
+      <c r="F40" s="143"/>
       <c r="G40" s="77"/>
       <c r="H40" s="77"/>
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
     </row>
     <row r="41" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143"/>
+      <c r="A41" s="140"/>
       <c r="B41" s="4" t="s">
         <v>85</v>
       </c>
@@ -3114,14 +3114,14 @@
       <c r="E41" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="F41" s="137"/>
+      <c r="F41" s="143"/>
       <c r="G41" s="77"/>
       <c r="H41" s="77"/>
       <c r="I41" s="77"/>
       <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="143"/>
+      <c r="A42" s="140"/>
       <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
@@ -3134,14 +3134,14 @@
       <c r="E42" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F42" s="137"/>
+      <c r="F42" s="143"/>
       <c r="G42" s="77"/>
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="143"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="5" t="s">
         <v>88</v>
       </c>
@@ -3154,14 +3154,14 @@
       <c r="E43" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F43" s="137"/>
+      <c r="F43" s="143"/>
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
       <c r="I43" s="77"/>
       <c r="J43" s="77"/>
     </row>
     <row r="44" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="143"/>
+      <c r="A44" s="140"/>
       <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
@@ -3174,14 +3174,14 @@
       <c r="E44" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="F44" s="137"/>
+      <c r="F44" s="143"/>
       <c r="G44" s="77"/>
       <c r="H44" s="77"/>
       <c r="I44" s="77"/>
       <c r="J44" s="77"/>
     </row>
     <row r="45" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="143"/>
+      <c r="A45" s="140"/>
       <c r="B45" s="5" t="s">
         <v>92</v>
       </c>
@@ -3194,14 +3194,14 @@
       <c r="E45" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F45" s="137"/>
+      <c r="F45" s="143"/>
       <c r="G45" s="77"/>
       <c r="H45" s="77"/>
       <c r="I45" s="77"/>
       <c r="J45" s="77"/>
     </row>
     <row r="46" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="144"/>
+      <c r="A46" s="141"/>
       <c r="B46" s="19" t="s">
         <v>94</v>
       </c>
@@ -3214,14 +3214,14 @@
       <c r="E46" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F46" s="138"/>
+      <c r="F46" s="144"/>
       <c r="G46" s="77"/>
       <c r="H46" s="77"/>
       <c r="I46" s="77"/>
       <c r="J46" s="77"/>
     </row>
     <row r="47" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="142" t="s">
+      <c r="A47" s="139" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="34" t="s">
@@ -3236,7 +3236,7 @@
       <c r="E47" s="135" t="s">
         <v>273</v>
       </c>
-      <c r="F47" s="136">
+      <c r="F47" s="142">
         <v>6</v>
       </c>
       <c r="G47" s="77"/>
@@ -3245,7 +3245,7 @@
       <c r="J47" s="77"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="143"/>
+      <c r="A48" s="140"/>
       <c r="B48" s="36" t="s">
         <v>267</v>
       </c>
@@ -3258,10 +3258,10 @@
       <c r="E48" s="134" t="s">
         <v>274</v>
       </c>
-      <c r="F48" s="137"/>
+      <c r="F48" s="143"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="143"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="4" t="s">
         <v>101</v>
       </c>
@@ -3274,10 +3274,10 @@
       <c r="E49" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F49" s="137"/>
+      <c r="F49" s="143"/>
     </row>
     <row r="50" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="143"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="38" t="s">
         <v>103</v>
       </c>
@@ -3290,14 +3290,14 @@
       <c r="E50" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F50" s="137"/>
+      <c r="F50" s="143"/>
       <c r="G50" s="77"/>
       <c r="H50" s="77"/>
       <c r="I50" s="77"/>
       <c r="J50" s="77"/>
     </row>
     <row r="51" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="143"/>
+      <c r="A51" s="140"/>
       <c r="B51" s="39" t="s">
         <v>105</v>
       </c>
@@ -3310,14 +3310,14 @@
       <c r="E51" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F51" s="137"/>
+      <c r="F51" s="143"/>
       <c r="G51" s="77"/>
       <c r="H51" s="77"/>
       <c r="I51" s="77"/>
       <c r="J51" s="77"/>
     </row>
     <row r="52" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="143"/>
+      <c r="A52" s="140"/>
       <c r="B52" s="23" t="s">
         <v>107</v>
       </c>
@@ -3330,14 +3330,14 @@
       <c r="E52" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="137"/>
+      <c r="F52" s="143"/>
       <c r="G52" s="77"/>
       <c r="H52" s="77"/>
       <c r="I52" s="77"/>
       <c r="J52" s="77"/>
     </row>
     <row r="53" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="143"/>
+      <c r="A53" s="140"/>
       <c r="B53" s="5" t="s">
         <v>109</v>
       </c>
@@ -3350,14 +3350,14 @@
       <c r="E53" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F53" s="137"/>
+      <c r="F53" s="143"/>
       <c r="G53" s="77"/>
       <c r="H53" s="77"/>
       <c r="I53" s="77"/>
       <c r="J53" s="77"/>
     </row>
     <row r="54" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="144"/>
+      <c r="A54" s="141"/>
       <c r="B54" s="19" t="s">
         <v>111</v>
       </c>
@@ -3370,14 +3370,14 @@
       <c r="E54" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F54" s="138"/>
+      <c r="F54" s="144"/>
       <c r="G54" s="77"/>
       <c r="H54" s="77"/>
       <c r="I54" s="77"/>
       <c r="J54" s="77"/>
     </row>
     <row r="55" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="142" t="s">
+      <c r="A55" s="139" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="34" t="s">
@@ -3392,7 +3392,7 @@
       <c r="E55" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="136">
+      <c r="F55" s="142">
         <v>0</v>
       </c>
       <c r="G55" s="77"/>
@@ -3401,7 +3401,7 @@
       <c r="J55" s="77"/>
     </row>
     <row r="56" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="143"/>
+      <c r="A56" s="140"/>
       <c r="B56" s="23" t="s">
         <v>118</v>
       </c>
@@ -3414,14 +3414,14 @@
       <c r="E56" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="137"/>
+      <c r="F56" s="143"/>
       <c r="G56" s="77"/>
       <c r="H56" s="77"/>
       <c r="I56" s="77"/>
       <c r="J56" s="77"/>
     </row>
     <row r="57" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="143"/>
+      <c r="A57" s="140"/>
       <c r="B57" s="5" t="s">
         <v>120</v>
       </c>
@@ -3434,14 +3434,14 @@
       <c r="E57" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F57" s="137"/>
+      <c r="F57" s="143"/>
       <c r="G57" s="77"/>
       <c r="H57" s="77"/>
       <c r="I57" s="77"/>
       <c r="J57" s="77"/>
     </row>
     <row r="58" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="144"/>
+      <c r="A58" s="141"/>
       <c r="B58" s="44" t="s">
         <v>122</v>
       </c>
@@ -3454,14 +3454,14 @@
       <c r="E58" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="138"/>
+      <c r="F58" s="144"/>
       <c r="G58" s="77"/>
       <c r="H58" s="77"/>
       <c r="I58" s="77"/>
       <c r="J58" s="77"/>
     </row>
     <row r="59" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="136" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -3476,7 +3476,7 @@
       <c r="E59" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F59" s="136">
+      <c r="F59" s="142">
         <v>2</v>
       </c>
       <c r="G59" s="77"/>
@@ -3485,7 +3485,7 @@
       <c r="J59" s="77"/>
     </row>
     <row r="60" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="140"/>
+      <c r="A60" s="137"/>
       <c r="B60" s="5" t="s">
         <v>127</v>
       </c>
@@ -3498,14 +3498,14 @@
       <c r="E60" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F60" s="137"/>
+      <c r="F60" s="143"/>
       <c r="G60" s="77"/>
       <c r="H60" s="77"/>
       <c r="I60" s="77"/>
       <c r="J60" s="77"/>
     </row>
     <row r="61" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="141"/>
+      <c r="A61" s="138"/>
       <c r="B61" s="19" t="s">
         <v>129</v>
       </c>
@@ -3518,14 +3518,14 @@
       <c r="E61" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="F61" s="138"/>
+      <c r="F61" s="144"/>
       <c r="G61" s="77"/>
       <c r="H61" s="77"/>
       <c r="I61" s="77"/>
       <c r="J61" s="77"/>
     </row>
     <row r="62" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142" t="s">
+      <c r="A62" s="139" t="s">
         <v>132</v>
       </c>
       <c r="B62" s="34" t="s">
@@ -3540,7 +3540,7 @@
       <c r="E62" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="F62" s="136">
+      <c r="F62" s="142">
         <v>1</v>
       </c>
       <c r="G62" s="77"/>
@@ -3549,7 +3549,7 @@
       <c r="J62" s="77"/>
     </row>
     <row r="63" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="143"/>
+      <c r="A63" s="140"/>
       <c r="B63" s="47" t="s">
         <v>135</v>
       </c>
@@ -3562,14 +3562,14 @@
       <c r="E63" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F63" s="137"/>
+      <c r="F63" s="143"/>
       <c r="G63" s="77"/>
       <c r="H63" s="77"/>
       <c r="I63" s="77"/>
       <c r="J63" s="77"/>
     </row>
     <row r="64" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="143"/>
+      <c r="A64" s="140"/>
       <c r="B64" s="8" t="s">
         <v>137</v>
       </c>
@@ -3582,14 +3582,14 @@
       <c r="E64" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F64" s="137"/>
+      <c r="F64" s="143"/>
       <c r="G64" s="77"/>
       <c r="H64" s="77"/>
       <c r="I64" s="77"/>
       <c r="J64" s="77"/>
     </row>
     <row r="65" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="143"/>
+      <c r="A65" s="140"/>
       <c r="B65" s="4" t="s">
         <v>139</v>
       </c>
@@ -3602,14 +3602,14 @@
       <c r="E65" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="137"/>
+      <c r="F65" s="143"/>
       <c r="G65" s="77"/>
       <c r="H65" s="77"/>
       <c r="I65" s="77"/>
       <c r="J65" s="77"/>
     </row>
     <row r="66" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="143"/>
+      <c r="A66" s="140"/>
       <c r="B66" s="5" t="s">
         <v>141</v>
       </c>
@@ -3622,14 +3622,14 @@
       <c r="E66" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F66" s="137"/>
+      <c r="F66" s="143"/>
       <c r="G66" s="77"/>
       <c r="H66" s="77"/>
       <c r="I66" s="77"/>
       <c r="J66" s="77"/>
     </row>
     <row r="67" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="143"/>
+      <c r="A67" s="140"/>
       <c r="B67" s="5" t="s">
         <v>143</v>
       </c>
@@ -3642,14 +3642,14 @@
       <c r="E67" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F67" s="137"/>
+      <c r="F67" s="143"/>
       <c r="G67" s="77"/>
       <c r="H67" s="77"/>
       <c r="I67" s="77"/>
       <c r="J67" s="77"/>
     </row>
     <row r="68" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="143"/>
+      <c r="A68" s="140"/>
       <c r="B68" s="5" t="s">
         <v>145</v>
       </c>
@@ -3662,14 +3662,14 @@
       <c r="E68" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F68" s="137"/>
+      <c r="F68" s="143"/>
       <c r="G68" s="77"/>
       <c r="H68" s="77"/>
       <c r="I68" s="77"/>
       <c r="J68" s="77"/>
     </row>
     <row r="69" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="144"/>
+      <c r="A69" s="141"/>
       <c r="B69" s="44" t="s">
         <v>147</v>
       </c>
@@ -3682,14 +3682,14 @@
       <c r="E69" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F69" s="138"/>
+      <c r="F69" s="144"/>
       <c r="G69" s="77"/>
       <c r="H69" s="77"/>
       <c r="I69" s="77"/>
       <c r="J69" s="77"/>
     </row>
     <row r="70" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="136" t="s">
         <v>149</v>
       </c>
       <c r="B70" s="21" t="s">
@@ -3704,7 +3704,7 @@
       <c r="E70" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F70" s="136">
+      <c r="F70" s="142">
         <v>3</v>
       </c>
       <c r="G70" s="77"/>
@@ -3713,7 +3713,7 @@
       <c r="J70" s="77"/>
     </row>
     <row r="71" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="140"/>
+      <c r="A71" s="137"/>
       <c r="B71" s="4" t="s">
         <v>152</v>
       </c>
@@ -3726,14 +3726,14 @@
       <c r="E71" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F71" s="137"/>
+      <c r="F71" s="143"/>
       <c r="G71" s="77"/>
       <c r="H71" s="77"/>
       <c r="I71" s="77"/>
       <c r="J71" s="77"/>
     </row>
     <row r="72" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="141"/>
+      <c r="A72" s="138"/>
       <c r="B72" s="50" t="s">
         <v>154</v>
       </c>
@@ -3746,7 +3746,7 @@
       <c r="E72" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F72" s="138"/>
+      <c r="F72" s="144"/>
       <c r="G72" s="77"/>
       <c r="H72" s="77"/>
       <c r="I72" s="77"/>
@@ -3777,7 +3777,7 @@
       <c r="J73" s="77"/>
     </row>
     <row r="74" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="139" t="s">
+      <c r="A74" s="136" t="s">
         <v>160</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -3792,7 +3792,7 @@
       <c r="E74" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F74" s="136">
+      <c r="F74" s="142">
         <v>4</v>
       </c>
       <c r="G74" s="77"/>
@@ -3801,7 +3801,7 @@
       <c r="J74" s="77"/>
     </row>
     <row r="75" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="140"/>
+      <c r="A75" s="137"/>
       <c r="B75" s="39" t="s">
         <v>163</v>
       </c>
@@ -3814,14 +3814,14 @@
       <c r="E75" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F75" s="137"/>
+      <c r="F75" s="143"/>
       <c r="G75" s="77"/>
       <c r="H75" s="77"/>
       <c r="I75" s="77"/>
       <c r="J75" s="77"/>
     </row>
     <row r="76" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="140"/>
+      <c r="A76" s="137"/>
       <c r="B76" s="5" t="s">
         <v>165</v>
       </c>
@@ -3834,14 +3834,14 @@
       <c r="E76" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="137"/>
+      <c r="F76" s="143"/>
       <c r="G76" s="77"/>
       <c r="H76" s="77"/>
       <c r="I76" s="77"/>
       <c r="J76" s="77"/>
     </row>
     <row r="77" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="141"/>
+      <c r="A77" s="138"/>
       <c r="B77" s="54" t="s">
         <v>167</v>
       </c>
@@ -3854,14 +3854,14 @@
       <c r="E77" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F77" s="138"/>
+      <c r="F77" s="144"/>
       <c r="G77" s="77"/>
       <c r="H77" s="77"/>
       <c r="I77" s="77"/>
       <c r="J77" s="77"/>
     </row>
     <row r="78" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="139" t="s">
+      <c r="A78" s="136" t="s">
         <v>169</v>
       </c>
       <c r="B78" s="55" t="s">
@@ -3876,7 +3876,7 @@
       <c r="E78" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F78" s="136">
+      <c r="F78" s="142">
         <v>4</v>
       </c>
       <c r="G78" s="77"/>
@@ -3885,7 +3885,7 @@
       <c r="J78" s="77"/>
     </row>
     <row r="79" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="140"/>
+      <c r="A79" s="137"/>
       <c r="B79" s="5" t="s">
         <v>172</v>
       </c>
@@ -3898,14 +3898,14 @@
       <c r="E79" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F79" s="137"/>
+      <c r="F79" s="143"/>
       <c r="G79" s="77"/>
       <c r="H79" s="77"/>
       <c r="I79" s="77"/>
       <c r="J79" s="77"/>
     </row>
     <row r="80" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="140"/>
+      <c r="A80" s="137"/>
       <c r="B80" s="5" t="s">
         <v>174</v>
       </c>
@@ -3918,14 +3918,14 @@
       <c r="E80" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F80" s="137"/>
+      <c r="F80" s="143"/>
       <c r="G80" s="77"/>
       <c r="H80" s="77"/>
       <c r="I80" s="77"/>
       <c r="J80" s="77"/>
     </row>
     <row r="81" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="141"/>
+      <c r="A81" s="138"/>
       <c r="B81" s="19" t="s">
         <v>176</v>
       </c>
@@ -3938,14 +3938,14 @@
       <c r="E81" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F81" s="138"/>
+      <c r="F81" s="144"/>
       <c r="G81" s="77"/>
       <c r="H81" s="77"/>
       <c r="I81" s="77"/>
       <c r="J81" s="77"/>
     </row>
     <row r="82" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="142" t="s">
+      <c r="A82" s="139" t="s">
         <v>178</v>
       </c>
       <c r="B82" s="30" t="s">
@@ -3960,7 +3960,7 @@
       <c r="E82" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F82" s="136">
+      <c r="F82" s="142">
         <v>3</v>
       </c>
       <c r="G82" s="77"/>
@@ -3969,7 +3969,7 @@
       <c r="J82" s="77"/>
     </row>
     <row r="83" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
+      <c r="A83" s="140"/>
       <c r="B83" s="38" t="s">
         <v>181</v>
       </c>
@@ -3982,14 +3982,14 @@
       <c r="E83" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F83" s="137"/>
+      <c r="F83" s="143"/>
       <c r="G83" s="77"/>
       <c r="H83" s="77"/>
       <c r="I83" s="77"/>
       <c r="J83" s="77"/>
     </row>
     <row r="84" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="144"/>
+      <c r="A84" s="141"/>
       <c r="B84" s="57" t="s">
         <v>183</v>
       </c>
@@ -4002,14 +4002,14 @@
       <c r="E84" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F84" s="138"/>
+      <c r="F84" s="144"/>
       <c r="G84" s="77"/>
       <c r="H84" s="77"/>
       <c r="I84" s="77"/>
       <c r="J84" s="77"/>
     </row>
     <row r="85" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="139" t="s">
+      <c r="A85" s="136" t="s">
         <v>185</v>
       </c>
       <c r="B85" s="21" t="s">
@@ -4024,7 +4024,7 @@
       <c r="E85" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="F85" s="136">
+      <c r="F85" s="142">
         <v>0</v>
       </c>
       <c r="G85" s="77"/>
@@ -4033,7 +4033,7 @@
       <c r="J85" s="77"/>
     </row>
     <row r="86" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="140"/>
+      <c r="A86" s="137"/>
       <c r="B86" s="5" t="s">
         <v>188</v>
       </c>
@@ -4046,14 +4046,14 @@
       <c r="E86" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="137"/>
+      <c r="F86" s="143"/>
       <c r="G86" s="77"/>
       <c r="H86" s="77"/>
       <c r="I86" s="77"/>
       <c r="J86" s="77"/>
     </row>
     <row r="87" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="141"/>
+      <c r="A87" s="138"/>
       <c r="B87" s="19" t="s">
         <v>191</v>
       </c>
@@ -4066,14 +4066,14 @@
       <c r="E87" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F87" s="138"/>
+      <c r="F87" s="144"/>
       <c r="G87" s="77"/>
       <c r="H87" s="77"/>
       <c r="I87" s="77"/>
       <c r="J87" s="77"/>
     </row>
     <row r="88" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="139" t="s">
+      <c r="A88" s="136" t="s">
         <v>193</v>
       </c>
       <c r="B88" s="16" t="s">
@@ -4088,7 +4088,7 @@
       <c r="E88" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F88" s="136">
+      <c r="F88" s="142">
         <v>3</v>
       </c>
       <c r="G88" s="77"/>
@@ -4097,7 +4097,7 @@
       <c r="J88" s="77"/>
     </row>
     <row r="89" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="140"/>
+      <c r="A89" s="137"/>
       <c r="B89" s="58" t="s">
         <v>197</v>
       </c>
@@ -4110,10 +4110,10 @@
       <c r="E89" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F89" s="137"/>
+      <c r="F89" s="143"/>
     </row>
     <row r="90" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="141"/>
+      <c r="A90" s="138"/>
       <c r="B90" s="112" t="s">
         <v>199</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="E90" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F90" s="138"/>
+      <c r="F90" s="144"/>
       <c r="G90" s="77"/>
       <c r="H90" s="77"/>
       <c r="I90" s="77"/>
@@ -4148,7 +4148,7 @@
       <c r="E91" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F91" s="136">
+      <c r="F91" s="142">
         <v>3</v>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       <c r="E92" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F92" s="137"/>
+      <c r="F92" s="143"/>
     </row>
     <row r="93" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="147"/>
@@ -4182,10 +4182,10 @@
       <c r="E93" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F93" s="138"/>
+      <c r="F93" s="144"/>
     </row>
     <row r="94" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="139" t="s">
+      <c r="A94" s="136" t="s">
         <v>208</v>
       </c>
       <c r="B94" s="34" t="s">
@@ -4200,7 +4200,7 @@
       <c r="E94" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F94" s="136">
+      <c r="F94" s="142">
         <v>3</v>
       </c>
       <c r="G94" s="77"/>
@@ -4209,7 +4209,7 @@
       <c r="J94" s="77"/>
     </row>
     <row r="95" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="140"/>
+      <c r="A95" s="137"/>
       <c r="B95" s="4" t="s">
         <v>212</v>
       </c>
@@ -4222,14 +4222,14 @@
       <c r="E95" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="F95" s="137"/>
+      <c r="F95" s="143"/>
       <c r="G95" s="77"/>
       <c r="H95" s="77"/>
       <c r="I95" s="77"/>
       <c r="J95" s="77"/>
     </row>
     <row r="96" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="140"/>
+      <c r="A96" s="137"/>
       <c r="B96" s="4" t="s">
         <v>214</v>
       </c>
@@ -4242,14 +4242,14 @@
       <c r="E96" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="F96" s="137"/>
+      <c r="F96" s="143"/>
       <c r="G96" s="77"/>
       <c r="H96" s="77"/>
       <c r="I96" s="77"/>
       <c r="J96" s="77"/>
     </row>
     <row r="97" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="140"/>
+      <c r="A97" s="137"/>
       <c r="B97" s="4" t="s">
         <v>216</v>
       </c>
@@ -4262,14 +4262,14 @@
       <c r="E97" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="F97" s="137"/>
+      <c r="F97" s="143"/>
       <c r="G97" s="77"/>
       <c r="H97" s="77"/>
       <c r="I97" s="77"/>
       <c r="J97" s="77"/>
     </row>
     <row r="98" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="140"/>
+      <c r="A98" s="137"/>
       <c r="B98" s="4" t="s">
         <v>218</v>
       </c>
@@ -4282,14 +4282,14 @@
       <c r="E98" s="115" t="s">
         <v>264</v>
       </c>
-      <c r="F98" s="137"/>
+      <c r="F98" s="143"/>
       <c r="G98" s="77"/>
       <c r="H98" s="77"/>
       <c r="I98" s="77"/>
       <c r="J98" s="77"/>
     </row>
     <row r="99" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="140"/>
+      <c r="A99" s="137"/>
       <c r="B99" s="4" t="s">
         <v>220</v>
       </c>
@@ -4302,14 +4302,14 @@
       <c r="E99" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F99" s="137"/>
+      <c r="F99" s="143"/>
       <c r="G99" s="77"/>
       <c r="H99" s="77"/>
       <c r="I99" s="77"/>
       <c r="J99" s="77"/>
     </row>
     <row r="100" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="140"/>
+      <c r="A100" s="137"/>
       <c r="B100" s="4" t="s">
         <v>222</v>
       </c>
@@ -4322,14 +4322,14 @@
       <c r="E100" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F100" s="137"/>
+      <c r="F100" s="143"/>
       <c r="G100" s="77"/>
       <c r="H100" s="77"/>
       <c r="I100" s="77"/>
       <c r="J100" s="77"/>
     </row>
     <row r="101" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="140"/>
+      <c r="A101" s="137"/>
       <c r="B101" s="4" t="s">
         <v>224</v>
       </c>
@@ -4342,14 +4342,14 @@
       <c r="E101" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F101" s="137"/>
+      <c r="F101" s="143"/>
       <c r="G101" s="77"/>
       <c r="H101" s="77"/>
       <c r="I101" s="77"/>
       <c r="J101" s="77"/>
     </row>
     <row r="102" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="141"/>
+      <c r="A102" s="138"/>
       <c r="B102" s="44" t="s">
         <v>226</v>
       </c>
@@ -4362,14 +4362,14 @@
       <c r="E102" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F102" s="138"/>
+      <c r="F102" s="144"/>
       <c r="G102" s="77"/>
       <c r="H102" s="77"/>
       <c r="I102" s="77"/>
       <c r="J102" s="77"/>
     </row>
     <row r="103" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="142" t="s">
+      <c r="A103" s="139" t="s">
         <v>228</v>
       </c>
       <c r="B103" s="21" t="s">
@@ -4384,7 +4384,7 @@
       <c r="E103" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F103" s="136">
+      <c r="F103" s="142">
         <v>3</v>
       </c>
       <c r="G103" s="77"/>
@@ -4393,7 +4393,7 @@
       <c r="J103" s="77"/>
     </row>
     <row r="104" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="143"/>
+      <c r="A104" s="140"/>
       <c r="B104" s="5" t="s">
         <v>232</v>
       </c>
@@ -4406,14 +4406,14 @@
       <c r="E104" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="137"/>
+      <c r="F104" s="143"/>
       <c r="G104" s="77"/>
       <c r="H104" s="77"/>
       <c r="I104" s="77"/>
       <c r="J104" s="77"/>
     </row>
     <row r="105" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="143"/>
+      <c r="A105" s="140"/>
       <c r="B105" s="23" t="s">
         <v>234</v>
       </c>
@@ -4426,14 +4426,14 @@
       <c r="E105" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="F105" s="137"/>
+      <c r="F105" s="143"/>
       <c r="G105" s="77"/>
       <c r="H105" s="77"/>
       <c r="I105" s="77"/>
       <c r="J105" s="77"/>
     </row>
     <row r="106" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="144"/>
+      <c r="A106" s="141"/>
       <c r="B106" s="19" t="s">
         <v>236</v>
       </c>
@@ -4446,14 +4446,14 @@
       <c r="E106" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="F106" s="138"/>
+      <c r="F106" s="144"/>
       <c r="G106" s="77"/>
       <c r="H106" s="77"/>
       <c r="I106" s="77"/>
       <c r="J106" s="77"/>
     </row>
     <row r="107" spans="1:10" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="142" t="s">
+      <c r="A107" s="139" t="s">
         <v>239</v>
       </c>
       <c r="B107" s="34" t="s">
@@ -4468,7 +4468,7 @@
       <c r="E107" s="117" t="s">
         <v>261</v>
       </c>
-      <c r="F107" s="136">
+      <c r="F107" s="142">
         <v>1</v>
       </c>
       <c r="G107" s="77"/>
@@ -4477,7 +4477,7 @@
       <c r="J107" s="77"/>
     </row>
     <row r="108" spans="1:10" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="144"/>
+      <c r="A108" s="141"/>
       <c r="B108" s="44" t="s">
         <v>243</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="E108" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="F108" s="138"/>
+      <c r="F108" s="144"/>
       <c r="G108" s="77"/>
       <c r="H108" s="77"/>
       <c r="I108" s="77"/>
@@ -4512,7 +4512,7 @@
       <c r="E109" s="117" t="s">
         <v>269</v>
       </c>
-      <c r="F109" s="136">
+      <c r="F109" s="142">
         <v>4</v>
       </c>
       <c r="G109" s="77"/>
@@ -4536,7 +4536,7 @@
       <c r="E110" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F110" s="137"/>
+      <c r="F110" s="143"/>
       <c r="G110" s="77"/>
       <c r="H110" s="77"/>
       <c r="I110" s="77"/>
@@ -4558,7 +4558,7 @@
       <c r="E111" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="F111" s="137"/>
+      <c r="F111" s="143"/>
       <c r="G111" s="77"/>
       <c r="H111" s="77"/>
       <c r="I111" s="77"/>
@@ -4580,7 +4580,7 @@
       <c r="E112" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="F112" s="137"/>
+      <c r="F112" s="143"/>
       <c r="G112" s="77"/>
       <c r="H112" s="77"/>
       <c r="I112" s="77"/>
@@ -4596,32 +4596,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="F7:F16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="F70:F72"/>
+  <mergeCells count="42">
+    <mergeCell ref="A1:F5"/>
     <mergeCell ref="F109:F112"/>
     <mergeCell ref="F74:F77"/>
     <mergeCell ref="F78:F81"/>
@@ -4638,6 +4614,31 @@
     <mergeCell ref="F91:F93"/>
     <mergeCell ref="F94:F102"/>
     <mergeCell ref="F103:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F39:F46"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="F7:F16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
